--- a/苏州市-漫展信息.xlsx
+++ b/苏州市-漫展信息.xlsx
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
